--- a/figures/Book3/Book3.xlsx
+++ b/figures/Book3/Book3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidhant\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +41,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>fish curry with potato</t>
-  </si>
-  <si>
     <t>salad</t>
   </si>
   <si>
@@ -49,13 +51,16 @@
   </si>
   <si>
     <t>1181 CAL.</t>
+  </si>
+  <si>
+    <t>chicken curry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +100,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +186,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +238,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,19 +431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,12 +463,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -430,16 +479,16 @@
         <v>624</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -451,7 +500,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -486,24 +535,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
